--- a/tiempoRespuesta.xlsx
+++ b/tiempoRespuesta.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2100448\Downloads\ARSW_LOAD-BALANCING_AZURE\ARSW_LOAD-BALANCING_AZURE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jospina/Downloads/arsw/LAB08-ARSW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70E87F-17EC-4C6D-99EB-1A62A9E517DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CFB88E-E2C6-8843-8B3B-738C82837ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AF738551-9BDB-470E-B8A0-D5F492FB8556}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" activeTab="1" xr2:uid="{AF738551-9BDB-470E-B8A0-D5F492FB8556}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Tiempo de respuesta </t>
   </si>
@@ -61,13 +62,16 @@
   </si>
   <si>
     <t>DATO</t>
+  </si>
+  <si>
+    <t>fotos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +204,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B31A43-2063-DA49-970C-F6F4EE574523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="8051800" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51158AD1-11C1-9B43-8328-571FFCB85FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="419100"/>
+          <a:ext cx="11811000" cy="6045200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,17 +596,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0478DE0C-06E9-456B-BF94-CFCBF85895CC}">
   <dimension ref="B6:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -517,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="18">
       <c r="B7">
         <v>1</v>
       </c>
@@ -528,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="18">
       <c r="B8">
         <v>2</v>
       </c>
@@ -539,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="18">
       <c r="B9">
         <v>3</v>
       </c>
@@ -550,7 +647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="18">
       <c r="B10">
         <v>4</v>
       </c>
@@ -561,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="18">
       <c r="B11">
         <v>5</v>
       </c>
@@ -572,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="18">
       <c r="B12">
         <v>6</v>
       </c>
@@ -583,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="18">
       <c r="B13">
         <v>7</v>
       </c>
@@ -594,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="18">
       <c r="B14">
         <v>8</v>
       </c>
@@ -605,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="18">
       <c r="B15">
         <v>9</v>
       </c>
@@ -616,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="18">
       <c r="B16">
         <v>10</v>
       </c>
@@ -632,4 +729,25 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB024E1B-9E1A-0A4D-B1F6-EFE3E01F33FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" activeCellId="1" sqref="L8 M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tiempoRespuesta.xlsx
+++ b/tiempoRespuesta.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jospina/Downloads/arsw/LAB08-ARSW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECI\ECI\ARSW\3Corte\LAB08-ARSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CFB88E-E2C6-8843-8B3B-738C82837ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" activeTab="1" xr2:uid="{AF738551-9BDB-470E-B8A0-D5F492FB8556}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Tiempo de respuesta </t>
   </si>
@@ -65,13 +64,60 @@
   </si>
   <si>
     <t>fotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2ms </t>
+  </si>
+  <si>
+    <t>27.60 </t>
+  </si>
+  <si>
+    <t>28.84 </t>
+  </si>
+  <si>
+    <t>28.73 </t>
+  </si>
+  <si>
+    <t>29.17 </t>
+  </si>
+  <si>
+    <t>29.79 </t>
+  </si>
+  <si>
+    <t>30.92</t>
+  </si>
+  <si>
+    <t>31.57 </t>
+  </si>
+  <si>
+    <t>32.29 </t>
+  </si>
+  <si>
+    <t>32.77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.09 </t>
+  </si>
+  <si>
+    <r>
+      <t>B1ls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +136,12 @@
       <color rgb="FF222222"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,6 +190,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,16 +215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>46121</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>18198</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>569996</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -191,8 +247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476875" y="152400"/>
-          <a:ext cx="12028571" cy="6819048"/>
+          <a:off x="8877300" y="552450"/>
+          <a:ext cx="11647571" cy="6819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,28 +649,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0478DE0C-06E9-456B-BF94-CFCBF85895CC}">
-  <dimension ref="B6:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4">
+    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="18">
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -624,8 +692,11 @@
       <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="18">
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -635,8 +706,11 @@
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="18">
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -646,8 +720,11 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="18">
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -657,8 +734,11 @@
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="18">
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -668,8 +748,11 @@
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="18">
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -679,8 +762,11 @@
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="18">
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -690,8 +776,11 @@
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="18">
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -701,8 +790,11 @@
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="18">
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -712,8 +804,11 @@
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="18">
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -722,6 +817,9 @@
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -732,16 +830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB024E1B-9E1A-0A4D-B1F6-EFE3E01F33FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M6" activeCellId="1" sqref="L8 M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>

--- a/tiempoRespuesta.xlsx
+++ b/tiempoRespuesta.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECI\ECI\ARSW\3Corte\LAB08-ARSW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jospina/Downloads/arsw/LAB08-ARSW/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A89BA-0B6D-AE43-9D54-8E9EAA716487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +343,50 @@
         <a:xfrm>
           <a:off x="9283700" y="419100"/>
           <a:ext cx="11811000" cy="6045200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20C3651-1E06-D540-86B7-AE4CF032B498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="8572500"/>
+          <a:ext cx="7543800" cy="6692900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,21 +694,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="18">
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
@@ -671,7 +716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -682,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="18">
       <c r="B7">
         <v>1</v>
       </c>
@@ -696,7 +741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="18">
       <c r="B8">
         <v>2</v>
       </c>
@@ -710,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="18">
       <c r="B9">
         <v>3</v>
       </c>
@@ -724,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="18">
       <c r="B10">
         <v>4</v>
       </c>
@@ -738,7 +783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="18">
       <c r="B11">
         <v>5</v>
       </c>
@@ -752,7 +797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="18">
       <c r="B12">
         <v>6</v>
       </c>
@@ -766,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="18">
       <c r="B13">
         <v>7</v>
       </c>
@@ -780,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="18">
       <c r="B14">
         <v>8</v>
       </c>
@@ -794,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="18">
       <c r="B15">
         <v>9</v>
       </c>
@@ -808,7 +853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="18">
       <c r="B16">
         <v>10</v>
       </c>
@@ -830,16 +875,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M6" activeCellId="1" sqref="L8 M6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>12</v>
       </c>

--- a/tiempoRespuesta.xlsx
+++ b/tiempoRespuesta.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jospina/Downloads/arsw/LAB08-ARSW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A89BA-0B6D-AE43-9D54-8E9EAA716487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DADC0F0-00EB-C54F-90D9-BF28DCB866FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="parte 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">Tiempo de respuesta </t>
   </si>
@@ -112,6 +113,9 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
 </sst>
 </file>
@@ -387,6 +391,143 @@
         <a:xfrm>
           <a:off x="9906000" y="8572500"/>
           <a:ext cx="7543800" cy="6692900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C045A92A-0AA2-8644-8896-56605A7E8938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="444500"/>
+          <a:ext cx="5778500" cy="3340100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D5F5BD-273F-9A4D-AE36-118861DDDA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="762000"/>
+          <a:ext cx="5422900" cy="3327400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE39DC83-C2CC-8540-90AF-141CCCCF9F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14770100" y="774700"/>
+          <a:ext cx="5461000" cy="3454400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="H67" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -893,4 +1034,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBC53CD-9AF4-6840-9A32-F8A59FFA8D12}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>